--- a/Documentation/Product Management/Product features.xlsx
+++ b/Documentation/Product Management/Product features.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="37">
   <si>
     <t>ID</t>
   </si>
@@ -118,9 +118,6 @@
     <t>log attempts in database and send via email when an error (or above) happens</t>
   </si>
   <si>
-    <t>be able to create, delete and edit other users. The simple users will only be able to edit their data (except from their category)</t>
-  </si>
-  <si>
     <t>to properly insert the organizational chart in the database</t>
   </si>
   <si>
@@ -134,9 +131,6 @@
   </si>
   <si>
     <t>login and use the application only if I am activated</t>
-  </si>
-  <si>
-    <t>be able to manage users (check product doc)</t>
   </si>
 </sst>
 </file>
@@ -556,7 +550,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>19</v>
@@ -644,7 +638,7 @@
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4" t="s">
@@ -682,21 +676,25 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+    <row r="7" spans="1:9" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
         <v>7</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="C7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>32</v>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -704,18 +702,26 @@
         <v>8</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
         <v>9</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>37</v>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -809,10 +815,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -837,7 +843,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>19</v>
@@ -861,45 +867,17 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>7</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>30</v>
       </c>
     </row>

--- a/Documentation/Product Management/Product features.xlsx
+++ b/Documentation/Product Management/Product features.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="product backlog" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="38">
   <si>
     <t>ID</t>
   </si>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t>login and use the application only if I am activated</t>
+  </si>
+  <si>
+    <t>Fix form fields in user edit form. They show None</t>
   </si>
 </sst>
 </file>
@@ -525,8 +528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -724,9 +727,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>10</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -817,7 +823,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>

--- a/Documentation/Product Management/Product features.xlsx
+++ b/Documentation/Product Management/Product features.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="product backlog" sheetId="1" r:id="rId1"/>
@@ -528,8 +528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -665,18 +665,25 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+    <row r="6" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
         <v>6</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="s">
         <v>30</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -727,12 +734,21 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+    <row r="10" spans="1:9" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
         <v>10</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4" t="s">
         <v>37</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -823,8 +839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -873,18 +889,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>6</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Product Management/Product features.xlsx
+++ b/Documentation/Product Management/Product features.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="product backlog" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="44">
   <si>
     <t>ID</t>
   </si>
@@ -134,6 +134,24 @@
   </si>
   <si>
     <t>Fix form fields in user edit form. They show None</t>
+  </si>
+  <si>
+    <t>to see pdf reports for employees per department etc.</t>
+  </si>
+  <si>
+    <t>setup virtual environment for the app</t>
+  </si>
+  <si>
+    <t>it can be uploaded and run from servers</t>
+  </si>
+  <si>
+    <t>do some performance profiling for the application</t>
+  </si>
+  <si>
+    <t>it can be optimized</t>
+  </si>
+  <si>
+    <t>http://docs.sqlalchemy.org/en/rel_1_0/faq/performance.html#faq-how-to-profile</t>
   </si>
 </sst>
 </file>
@@ -528,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -751,19 +769,37 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E11" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>13</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -839,7 +875,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>

--- a/Documentation/Product Management/Product features.xlsx
+++ b/Documentation/Product Management/Product features.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="45">
   <si>
     <t>ID</t>
   </si>
@@ -152,6 +152,9 @@
   </si>
   <si>
     <t>http://docs.sqlalchemy.org/en/rel_1_0/faq/performance.html#faq-how-to-profile</t>
+  </si>
+  <si>
+    <t>improve code design usign design patterns</t>
   </si>
 </sst>
 </file>
@@ -547,7 +550,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -802,9 +805,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>14</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">

--- a/Documentation/Product Management/Product features.xlsx
+++ b/Documentation/Product Management/Product features.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="47">
   <si>
     <t>ID</t>
   </si>
@@ -155,6 +155,12 @@
   </si>
   <si>
     <t>improve code design usign design patterns</t>
+  </si>
+  <si>
+    <t>Add irs number field to organization</t>
+  </si>
+  <si>
+    <t>Add constraints and messages to deletions (eg in organizations that have parent organizations)</t>
   </si>
 </sst>
 </file>
@@ -550,7 +556,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -817,10 +823,16 @@
       <c r="A15" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E15" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>16</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">

--- a/Documentation/Product Management/Product features.xlsx
+++ b/Documentation/Product Management/Product features.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="50">
   <si>
     <t>ID</t>
   </si>
@@ -161,6 +161,15 @@
   </si>
   <si>
     <t>Add constraints and messages to deletions (eg in organizations that have parent organizations)</t>
+  </si>
+  <si>
+    <t>add photo for users</t>
+  </si>
+  <si>
+    <t>add logo for organizations</t>
+  </si>
+  <si>
+    <t>delete View button on user form. Rename Επεξεργασία to Προβολή/Επεξεργασία</t>
   </si>
 </sst>
 </file>
@@ -556,7 +565,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -786,15 +795,23 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+    <row r="12" spans="1:9" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
         <v>12</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="4" t="s">
         <v>40</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -811,12 +828,21 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+    <row r="14" spans="1:9" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
         <v>14</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4" t="s">
         <v>44</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -835,42 +861,51 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E17" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E18" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E19" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>24</v>
       </c>
@@ -894,7 +929,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Documentation/Product Management/Product features.xlsx
+++ b/Documentation/Product Management/Product features.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="product backlog" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="50">
   <si>
     <t>ID</t>
   </si>
@@ -564,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -743,12 +743,21 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+    <row r="8" spans="1:9" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
         <v>8</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
         <v>32</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -926,10 +935,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -978,12 +987,28 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>32</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>17</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>18</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Product Management/Product features.xlsx
+++ b/Documentation/Product Management/Product features.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="51">
   <si>
     <t>ID</t>
   </si>
@@ -169,7 +169,10 @@
     <t>add logo for organizations</t>
   </si>
   <si>
-    <t>delete View button on user form. Rename Επεξεργασία to Προβολή/Επεξεργασία</t>
+    <t>delete View button on user form. Rename Επεξεργασία to Προβολή/Επεξεργασία. Use readonly property</t>
+  </si>
+  <si>
+    <t>improve forms code according to bootstrap instructions</t>
   </si>
 </sst>
 </file>
@@ -564,8 +567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -823,18 +826,25 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+    <row r="13" spans="1:9" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
         <v>13</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="4" t="s">
         <v>43</v>
+      </c>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -854,39 +864,75 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+    <row r="15" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
         <v>15</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
         <v>16</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>17</v>
-      </c>
-      <c r="E17" s="3" t="s">
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>17</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
         <v>18</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>19</v>
       </c>
@@ -894,27 +940,30 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E20" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>24</v>
       </c>
@@ -935,10 +984,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -987,36 +1036,28 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>18</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I3 I4:I1048576">
       <formula1>userstorystatus</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H3 H4:H1048576">
       <formula1>priority</formula1>
     </dataValidation>
   </dataValidations>

--- a/Documentation/Product Management/Product features.xlsx
+++ b/Documentation/Product Management/Product features.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="52">
   <si>
     <t>ID</t>
   </si>
@@ -173,6 +173,9 @@
   </si>
   <si>
     <t>improve forms code according to bootstrap instructions</t>
+  </si>
+  <si>
+    <t>enable oath 2 for authorization</t>
   </si>
 </sst>
 </file>
@@ -567,8 +570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD20"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -940,17 +943,29 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+    <row r="20" spans="1:9" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
         <v>20</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4" t="s">
         <v>50</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>21</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -987,7 +1002,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1038,26 +1053,26 @@
     </row>
     <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I3 I4:I1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576">
       <formula1>userstorystatus</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H3 H4:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576">
       <formula1>priority</formula1>
     </dataValidation>
   </dataValidations>

--- a/Documentation/Product Management/Product features.xlsx
+++ b/Documentation/Product Management/Product features.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="54">
   <si>
     <t>ID</t>
   </si>
@@ -176,6 +176,12 @@
   </si>
   <si>
     <t>enable oath 2 for authorization</t>
+  </si>
+  <si>
+    <t>create the projects list page and related functionality</t>
+  </si>
+  <si>
+    <t>create the project details form and related functionality</t>
   </si>
 </sst>
 </file>
@@ -571,7 +577,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD21"/>
+      <selection activeCell="A22" sqref="A22:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -802,12 +808,21 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+    <row r="11" spans="1:9" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
         <v>11</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4" t="s">
         <v>38</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -968,14 +983,20 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E22" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>23</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1053,18 +1074,18 @@
     </row>
     <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
